--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1394797.646679612</v>
+        <v>1502027.088077699</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10636657.49488917</v>
+        <v>10650105.94026881</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>157.360156817499</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.245762377693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>100.1010273360016</v>
       </c>
       <c r="T4" t="n">
-        <v>102.088204316189</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>75.49088380154113</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>75.45713216103836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.90024776815495</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>43.83939614925711</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>223.5422870669804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.79406931039998</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.31045461930137</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>93.72286215766295</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484791</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.73194049497363</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>132.1190787273706</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410087</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2290,22 +2292,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>116.287325111933</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>151.8518831495024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>110.1270172505057</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.6760079449713</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.3370399414308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>181.307467514288</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I34" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583936</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>1.839588425939337</v>
+        <v>107.3363007608859</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.67353929277202</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>25.73194049497363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.483980665509</v>
+        <v>1407.319888150872</v>
       </c>
       <c r="C2" t="n">
-        <v>1026.521463725097</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1026.521463725097</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1026.521463725097</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4325,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926588</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X2" t="n">
-        <v>1395.483980665509</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1395.483980665509</v>
+        <v>1793.919728214994</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4403,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>482.9033490193026</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297104</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1807.87508285327</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.0593816855418</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>366.1231987576349</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1432.750564765836</v>
       </c>
       <c r="T4" t="n">
-        <v>1234.11456745076</v>
+        <v>1209.772083960571</v>
       </c>
       <c r="U4" t="n">
-        <v>1234.11456745076</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="V4" t="n">
-        <v>1234.11456745076</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="W4" t="n">
-        <v>944.6973974137989</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="X4" t="n">
-        <v>716.7078465157815</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>716.7078465157815</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943749</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943749</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>2437.640120926624</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>593.0223835625325</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.3667606649364</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1435.983675440428</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1213.005194635163</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>923.8868571390007</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>669.2023689331138</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>379.7851988961531</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.807804638706</v>
+        <v>379.7851988961531</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.0152254951761</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.178203944122</v>
+        <v>1489.525984198213</v>
       </c>
       <c r="C8" t="n">
-        <v>1259.21568700371</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>1259.21568700371</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>1876.125824262335</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>1876.125824262335</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008243</v>
+        <v>1876.125824262335</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>932.4978103100992</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.759829269319</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1683.044957866264</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2015.115393042425</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2262.298126874722</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.586220433873</v>
+        <v>834.938065318854</v>
       </c>
       <c r="C10" t="n">
-        <v>470.586220433873</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D10" t="n">
-        <v>320.4695810215372</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E10" t="n">
-        <v>320.4695810215372</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F10" t="n">
-        <v>320.4695810215372</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1345.147814499345</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1345.147814499345</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621301</v>
+        <v>1055.730644462384</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641127</v>
+        <v>1055.730644462384</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2346852641127</v>
+        <v>834.938065318854</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714574</v>
+        <v>280.8495004245718</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,16 +5460,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2420.971224494428</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
         <v>2018.514925172274</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>916.2946447138411</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>766.1780053015053</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>618.2649117191122</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5686,37 +5688,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4323.470669748392</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.315625093766</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2085.82313412342</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232838</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651098</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723192</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310856</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728463</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="F28" t="n">
-        <v>2419.773435218391</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2939.372134388645</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C31" t="n">
-        <v>2770.435951460738</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
         <v>2337.686731866304</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>4288.092831346496</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>4033.40834314061</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3743.991173103649</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>3516.001622205632</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>3295.209043062102</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,19 +6785,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>277.5052172074016</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>2488.637091092976</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7311,25 @@
         <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,16 +7359,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W40" t="n">
         <v>1647.011051783227</v>
@@ -7400,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2380.626175203723</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2380.626175203723</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2380.626175203723</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2091.550948547921</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.866460342034</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>2876.560776129204</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>3473.939263755756</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>4101.537227310362</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>4653.44695754965</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.19349744548</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35.91627445172469</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8301,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>255.5240487471586</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>186.591198401906</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.6711151870894</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>40.64330621514806</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.30196929556061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>46.45968844823545</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24178,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.2784330767826</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>25.74504007795993</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392964</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767816</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>104.8770068749562</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I34" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>72.11969353038452</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>250.2980548978887</v>
+        <v>144.8013425629421</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.7017074173496667</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>226.4057028288544</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>930991.3186774668</v>
+        <v>938121.6316787519</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>930991.3186774668</v>
+        <v>938121.6316787519</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314047</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
@@ -26353,7 +26355,7 @@
         <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="C4" t="n">
-        <v>87304.3471980832</v>
-      </c>
       <c r="D4" t="n">
-        <v>87304.3471980832</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26457,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828856.4501124506</v>
+        <v>-828856.4501124514</v>
       </c>
       <c r="C6" t="n">
-        <v>114474.0767935942</v>
+        <v>285895.3334634689</v>
       </c>
       <c r="D6" t="n">
-        <v>317912.8184057005</v>
+        <v>285895.3334634684</v>
       </c>
       <c r="E6" t="n">
-        <v>69814.32074825968</v>
+        <v>-112258.6590689311</v>
       </c>
       <c r="F6" t="n">
+        <v>395226.7825556144</v>
+      </c>
+      <c r="G6" t="n">
+        <v>395226.7825556145</v>
+      </c>
+      <c r="H6" t="n">
+        <v>395226.7825556146</v>
+      </c>
+      <c r="I6" t="n">
         <v>395226.7825556147</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>227621.6047456321</v>
+      </c>
+      <c r="K6" t="n">
+        <v>395226.7825556147</v>
+      </c>
+      <c r="L6" t="n">
         <v>395226.7825556146</v>
       </c>
-      <c r="H6" t="n">
-        <v>395226.7825556147</v>
-      </c>
-      <c r="I6" t="n">
-        <v>395226.7825556146</v>
-      </c>
-      <c r="J6" t="n">
-        <v>227621.604745632</v>
-      </c>
-      <c r="K6" t="n">
-        <v>346116.6898495601</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>262619.488826688</v>
+      </c>
+      <c r="N6" t="n">
         <v>395226.7825556145</v>
-      </c>
-      <c r="M6" t="n">
-        <v>310171.7546201028</v>
-      </c>
-      <c r="N6" t="n">
-        <v>395226.7825556146</v>
       </c>
       <c r="O6" t="n">
         <v>395226.7825556146</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556146</v>
+        <v>395226.7825556147</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>207.9127349535085</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.6302833640185</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.56143302573585</v>
       </c>
       <c r="T4" t="n">
-        <v>118.6604916810229</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2429578619394</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>279.2259094596446</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>97.76221259358253</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>181.87025923978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>141.7306047040271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>355.1363007618618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>155.7153536397269</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>192.5042919635377</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>138.5955196772184</v>
+        <v>175.6052721551119</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,13 +31864,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>403.3065760821439</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32722,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32789,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34451,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>134.728488117189</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>371.3409564478476</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>622.4553810291989</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977087</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>303.0719207327604</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7540807028594299</v>
+        <v>37.7638331807529</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060409</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36911,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028587982</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1502027.088077699</v>
+        <v>1497889.930827547</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>157.360156817499</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>218.6486949965332</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>100.1010273360016</v>
+        <v>113.4309740201557</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.49088380154113</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>288.1806164064256</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>56.60860467372823</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>96.90024776815495</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>223.5422870669804</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>281.1467950393361</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>93.72286215766295</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484791</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>17.95257707283437</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.73194049497363</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410087</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>116.287325111933</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.1270172505057</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.9742741983392</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>181.307467514288</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>68.17501931583936</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>107.3363007608859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1407.319888150872</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1080.542557864428</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1080.542557864428</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>694.7543052661836</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>283.768400476576</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>272.104054241269</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190806</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190806</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1793.919728214994</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193026</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507743</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1432.750564765836</v>
+        <v>1521.869378639997</v>
       </c>
       <c r="T4" t="n">
-        <v>1209.772083960571</v>
+        <v>1521.869378639997</v>
       </c>
       <c r="U4" t="n">
-        <v>920.6537464644088</v>
+        <v>1521.869378639997</v>
       </c>
       <c r="V4" t="n">
-        <v>920.6537464644088</v>
+        <v>1521.869378639997</v>
       </c>
       <c r="W4" t="n">
-        <v>920.6537464644088</v>
+        <v>1232.452208603036</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>1004.462657705019</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>783.6700785614887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2361.386702945269</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>1123.757016247814</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>712.7711114582066</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926624</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926624</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926624</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926624</v>
+        <v>1878.50778578647</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310611</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625325</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659134</v>
+        <v>427.4800176695874</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659134</v>
+        <v>258.5438347416805</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659134</v>
+        <v>108.4271953293448</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659134</v>
+        <v>108.4271953293448</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800308</v>
+        <v>108.4271953293448</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1435.983675440428</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1213.005194635163</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>923.8868571390007</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>669.2023689331138</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>379.7851988961531</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X7" t="n">
-        <v>379.7851988961531</v>
+        <v>829.9210616433572</v>
       </c>
       <c r="Y7" t="n">
-        <v>379.7851988961531</v>
+        <v>609.1284824998271</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1489.525984198213</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>712.1089938151592</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>353.8432952084087</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333218</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437142</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532449</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262335</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.125824262335</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.125824262335</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310611</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100992</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269319</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866264</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042425</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2262.298126874722</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>834.938065318854</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>666.0018823909471</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786114</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1345.147814499345</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1345.147814499345</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1055.730644462384</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1055.730644462384</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>834.938065318854</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245718</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403302</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>335.7491137930464</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2420.971224494428</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2238.116390149333</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.514925172274</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="17">
@@ -5491,61 +5491,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5560,7 +5560,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4323.470669748392</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4034.395443092589</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>4034.395443092589</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2085.82313412342</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.747907467618</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.063419261731</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1252.64624922477</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.656698326753</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832229</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2438.670847218161</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2438.670847218161</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2438.670847218161</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3113.560578231862</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>2944.624395303955</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>2794.50775589162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4288.092831346496</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4033.40834314061</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>3743.991173103649</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.001622205632</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.209043062102</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2488.637091092976</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5240487471586</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.591198401906</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870894</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>147.5715612194345</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.64330621514806</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823545</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.2784330767826</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409392964</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>104.8770068749562</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.11969353038452</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>144.8013425629421</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>938121.6316787519</v>
+        <v>938121.6316787518</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>938121.6316787519</v>
+        <v>938121.6316787518</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915359.2522314047</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314047</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
@@ -26337,13 +26337,13 @@
         <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
@@ -26352,7 +26352,7 @@
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828856.4501124514</v>
+        <v>-828856.4501124513</v>
       </c>
       <c r="C6" t="n">
-        <v>285895.3334634689</v>
+        <v>285895.3334634685</v>
       </c>
       <c r="D6" t="n">
-        <v>285895.3334634684</v>
+        <v>285895.3334634686</v>
       </c>
       <c r="E6" t="n">
-        <v>-112258.6590689311</v>
+        <v>-112606.0383232883</v>
       </c>
       <c r="F6" t="n">
-        <v>395226.7825556144</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="G6" t="n">
-        <v>395226.7825556145</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="H6" t="n">
-        <v>395226.7825556146</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="I6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012579</v>
       </c>
       <c r="J6" t="n">
-        <v>227621.6047456321</v>
+        <v>227274.2254912751</v>
       </c>
       <c r="K6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="L6" t="n">
-        <v>395226.7825556146</v>
+        <v>394879.4033012577</v>
       </c>
       <c r="M6" t="n">
-        <v>262619.488826688</v>
+        <v>262272.109572331</v>
       </c>
       <c r="N6" t="n">
-        <v>395226.7825556145</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="O6" t="n">
-        <v>395226.7825556146</v>
+        <v>394879.4033012575</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012577</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>207.9127349535085</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82.36985756587219</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>94.56143302573585</v>
+        <v>81.23148634158176</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2429578619394</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>123.3670863665284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,10 +27675,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>109.697995371076</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>97.76221259358253</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>141.7306047040271</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>100.7835750329257</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>192.5042919635377</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551119</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32724,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578699</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391851</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,7 +34795,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>622.4553810291989</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000385</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977087</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000385</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q9" t="n">
-        <v>303.0719207327604</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.7638331807529</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060409</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294884</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1497889.930827547</v>
+        <v>1499650.461130333</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>218.6486949965332</v>
+        <v>196.6997841156788</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>113.4309740201557</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>288.1806164064256</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>202.350529077403</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>56.60860467372823</v>
+        <v>50.98074812542857</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>281.1467950393361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>97.124684088206</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>151.855586233358</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>140.9144183062129</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>17.95257707283437</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9125838784778</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>118.8520688186515</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>168.97752971242</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>156.8624097380497</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427719</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>26.70391688093253</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1449.50507480484</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C2" t="n">
-        <v>1080.542557864428</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D2" t="n">
-        <v>1080.542557864428</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E2" t="n">
-        <v>694.7543052661836</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F2" t="n">
-        <v>283.768400476576</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G2" t="n">
-        <v>272.104054241269</v>
+        <v>249.9334371899009</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4333,13 +4333,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4369,13 +4369,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.104914868961</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>602.021613731249</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1521.869378639997</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1521.869378639997</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1521.869378639997</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="V4" t="n">
-        <v>1521.869378639997</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W4" t="n">
-        <v>1232.452208603036</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>1004.462657705019</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>783.6700785614887</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.50778578647</v>
+        <v>1113.627677513</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.545268846058</v>
+        <v>744.6651605725879</v>
       </c>
       <c r="D5" t="n">
-        <v>1509.545268846058</v>
+        <v>744.6651605725879</v>
       </c>
       <c r="E5" t="n">
-        <v>1123.757016247814</v>
+        <v>744.6651605725879</v>
       </c>
       <c r="F5" t="n">
-        <v>712.7711114582066</v>
+        <v>333.6792557829803</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>322.0149095476733</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>427.4800176695874</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C7" t="n">
-        <v>258.5438347416805</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D7" t="n">
-        <v>108.4271953293448</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E7" t="n">
-        <v>108.4271953293448</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F7" t="n">
-        <v>108.4271953293448</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541375</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>829.9210616433572</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>609.1284824998271</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755571</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="C8" t="n">
-        <v>712.1089938151592</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="D8" t="n">
-        <v>353.8432952084087</v>
+        <v>912.5190745852306</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>526.7308219869863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>519.7853212377828</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1270.784773191981</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>815.1145481251077</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681273</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
         <v>261.0127623330919</v>
@@ -5190,61 +5190,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032925</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>482.6390612909568</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>482.6390612909568</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>335.7491137930464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2090.45917461044</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1801.383947954638</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1546.699459748751</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1257.28228971179</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>502.4710364699988</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>355.5810889720884</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2105.661370711882</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7396,52 +7396,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400667</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270397</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854702</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648815</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611854</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138365</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3555089013348</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.3355197601762</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039161</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.54986409393027</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>147.5715612194345</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>45.4928664488105</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4141550350967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>102.8768876993838</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>46.67206947361737</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>10.85445046951727</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>60.54304058923859</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219467</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915359.2522314047</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
@@ -26337,25 +26337,25 @@
         <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828856.4501124513</v>
+        <v>-828856.450112451</v>
       </c>
       <c r="C6" t="n">
+        <v>285895.3334634682</v>
+      </c>
+      <c r="D6" t="n">
         <v>285895.3334634685</v>
       </c>
-      <c r="D6" t="n">
-        <v>285895.3334634686</v>
-      </c>
       <c r="E6" t="n">
-        <v>-112606.0383232883</v>
+        <v>-112293.3969943666</v>
       </c>
       <c r="F6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.044630179</v>
       </c>
       <c r="G6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="H6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="I6" t="n">
-        <v>394879.4033012579</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="J6" t="n">
-        <v>227274.2254912751</v>
+        <v>227586.8668201964</v>
       </c>
       <c r="K6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="L6" t="n">
-        <v>394879.4033012577</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="M6" t="n">
-        <v>262272.109572331</v>
+        <v>262584.7509012523</v>
       </c>
       <c r="N6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="O6" t="n">
-        <v>394879.4033012575</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="P6" t="n">
-        <v>394879.4033012577</v>
+        <v>395192.0446301789</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>82.36985756587219</v>
+        <v>104.3187684467266</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>81.23148634158176</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>89.82535797284092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>123.3670863665284</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>98.66802348500241</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.697995371076</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7835750329257</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>314.423018684748</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>412.0358695391851</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>522.0158803980265</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35266,13 +35266,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="P9" t="n">
-        <v>304.632674239197</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
